--- a/data/ColorsForPhenotypes.xlsx
+++ b/data/ColorsForPhenotypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benfair/mnt/midway/myhome_yang/ChromatinSplicingQTLs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8C2F2B16-83C6-844C-B95E-2203BFD817CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EE71DB6B-6D16-EB47-8EE0-0BB8F0C56AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColorsForQTLPhenotypes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="70" uniqueCount="33">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="71" uniqueCount="32">
   <si>
     <t>Phenotype</t>
   </si>
@@ -118,19 +118,16 @@
     <t>H3K36ME3</t>
   </si>
   <si>
-    <t>H3K79ME2</t>
-  </si>
-  <si>
-    <t>#ffff99</t>
-  </si>
-  <si>
     <t>#fb8072</t>
+  </si>
+  <si>
+    <t>#8dd3c7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -971,11 +968,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,120 +1005,120 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1140,7 +1137,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1151,12 +1148,23 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1166,11 +1174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,7 +1252,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1256,12 +1264,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ColorsForPhenotypes.xlsx
+++ b/data/ColorsForPhenotypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benfair/mnt/midway/myhome_yang/ChromatinSplicingQTLs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/project2/yangili1/bjf79/ChromatinSplicingQTLs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EE71DB6B-6D16-EB47-8EE0-0BB8F0C56AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3F298E7C-D3E0-A142-9C78-128BD830F195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColorsForQTLPhenotypes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="71" uniqueCount="32">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="36">
   <si>
     <t>Phenotype</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>#8dd3c7</t>
+  </si>
+  <si>
+    <t>GroupsFile_label</t>
+  </si>
+  <si>
+    <t>chRNA</t>
+  </si>
+  <si>
+    <t>polyA.RNA</t>
+  </si>
+  <si>
+    <t>polyA.Splicing</t>
   </si>
 </sst>
 </file>
@@ -969,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1168,6 +1180,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1175,95 +1198,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
   </sheetData>

--- a/data/ColorsForPhenotypes.xlsx
+++ b/data/ColorsForPhenotypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/project2/yangili1/bjf79/ChromatinSplicingQTLs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3F298E7C-D3E0-A142-9C78-128BD830F195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1448F399-DF66-FF42-8FFD-1A407C627020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColorsForQTLPhenotypes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="36">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="87" uniqueCount="37">
   <si>
     <t>Phenotype</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>polyA.Splicing</t>
+  </si>
+  <si>
+    <t>H3K4ME1</t>
   </si>
 </sst>
 </file>
@@ -983,7 +986,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1200,8 +1203,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1230,94 +1233,102 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
